--- a/reporteExamenPorSancion.xlsx
+++ b/reporteExamenPorSancion.xlsx
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fecha y hora de creación: 09/06/2021, 11:36:46</t>
+          <t>Fecha y hora de creación: 09/06/2021, 11:38:17</t>
         </is>
       </c>
     </row>
